--- a/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
+++ b/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\elec\NSDoNCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\NSDoNCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1050,6 +1050,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,9 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1368,22 +1368,22 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="78.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,141 +1392,141 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1549,14 +1549,14 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>10</v>
       </c>
@@ -2101,23 +2101,23 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.265625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="6">
         <v>3683</v>
@@ -2190,7 +2190,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="21"/>
       <c r="B3" s="6">
         <v>3683</v>
@@ -2224,7 +2224,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
       <c r="B4" s="6">
         <v>2542</v>
@@ -2258,7 +2258,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="21"/>
       <c r="B5" s="6">
         <v>3045</v>
@@ -2292,7 +2292,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>4104</v>
@@ -2324,7 +2324,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>3060</v>
@@ -2354,7 +2354,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="21"/>
       <c r="B8" s="6">
         <v>3104</v>
@@ -2384,7 +2384,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="6">
         <v>3514</v>
@@ -2414,7 +2414,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="21"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6">
@@ -2440,7 +2440,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="21"/>
       <c r="B12" s="13"/>
       <c r="C12" s="6">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="21"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="21"/>
       <c r="B14" s="13"/>
       <c r="C14" s="6">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="21"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="21"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6">
@@ -2612,7 +2612,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6">
@@ -2628,7 +2628,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="21"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2642,7 +2642,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2656,7 +2656,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2670,7 +2670,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2684,7 +2684,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2698,7 +2698,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2712,7 +2712,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="22" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>146.68162802478025</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="23" t="s">
         <v>14</v>
       </c>
@@ -2821,19 +2821,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.1328125" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>64</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
         <v>65</v>
       </c>
@@ -2851,31 +2851,31 @@
       <c r="D2" s="31"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="61" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
-    </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="61"/>
       <c r="B4" s="32" t="s">
         <v>70</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>76</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="44">
         <v>2010</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>175.07</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="49">
         <v>2011</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>427.78999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="44">
         <v>2012</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>914.79399999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="44">
         <v>2013</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>1343.7889999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="44">
         <v>2014</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>3166.3595000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="49">
         <v>2015</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>2869.6819999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="49">
         <v>2016</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>7468.993999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="49">
         <v>2017</v>
       </c>
@@ -3282,24 +3282,24 @@
         <v>2303.190000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>78</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>2.0043665964367037</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>79</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>2.1449119700000003</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>80</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0.16731592090868649</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>81</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>82</v>
       </c>
@@ -3363,25 +3363,25 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0.22951832790705273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0.6323412969779878</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>8.3475708089595577E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0.11955441996991129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3453,16 +3453,16 @@
         <v>0.2969718751850845</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="26">
-        <f>STDEV(CRS!B34:B37)/AVERAGE(CRS!B34:B37)</f>
-        <v>0.1962978819110564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B5</f>
+        <v>0.6323412969779878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0.37017095779576853</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>89</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>87</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="s">
         <v>88</v>
       </c>

--- a/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
+++ b/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\NSDoNCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\elec\NSDoNCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D579B-F9E1-4BA2-8FB5-F15436DA67E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CRS" sheetId="9" r:id="rId2"/>
     <sheet name="E3 Data" sheetId="8" r:id="rId3"/>
-    <sheet name="PV" sheetId="11" r:id="rId4"/>
-    <sheet name="NSDoNCC" sheetId="3" r:id="rId5"/>
+    <sheet name="NSDoNCC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
   <si>
     <t>Source:</t>
-  </si>
-  <si>
-    <t>Solar PV</t>
   </si>
   <si>
     <t>Electricity Source</t>
@@ -185,15 +192,9 @@
     <t>p. 76-91</t>
   </si>
   <si>
-    <t>Coal, Natural Gas Nonpeaker, Nuclear, Wind, Solar Thermal, Geothermal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Where possible, we use published costs to estimate the normalized standard deviation for new </t>
   </si>
   <si>
-    <t xml:space="preserve"> calculate values for solar PV. For the remaining power plant types, we use reported project costs</t>
-  </si>
-  <si>
     <t xml:space="preserve">aggregated in a report by Energy and Environmental Economics (E3) as the basis for calculating the </t>
   </si>
   <si>
@@ -224,97 +225,12 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>nuclear, onshore wind, solar thermal, solar PV, and geothermal. However, given the small sample size (2) for</t>
-  </si>
-  <si>
     <t>We use onshore wind ranges for offshore wind and we assume the coal values apply to both hard coal</t>
   </si>
   <si>
     <t>and lignite.</t>
   </si>
   <si>
-    <r>
-      <t>Figure 10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Installed Price of Utility-Scale PV by Mounting Type and Installation Year</t>
-    </r>
-  </si>
-  <si>
-    <t>Units: 2017 Real $/W-AC</t>
-  </si>
-  <si>
-    <t>Installation Year</t>
-  </si>
-  <si>
-    <t>Fixed-Tilt Projects</t>
-  </si>
-  <si>
-    <t>Tracking Projects</t>
-  </si>
-  <si>
-    <t>All PV Sample</t>
-  </si>
-  <si>
-    <t>Median Price</t>
-  </si>
-  <si>
-    <t>Capacity-Weighted Average</t>
-  </si>
-  <si>
-    <t>20th Percentile</t>
-  </si>
-  <si>
-    <t>80th Percentile</t>
-  </si>
-  <si>
-    <t>Project Count</t>
-  </si>
-  <si>
-    <t>Project MW-AC</t>
-  </si>
-  <si>
-    <t>2007-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: "All PV" sample includes PV projects with hybrid tracking technologies and CPV projects
-</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>x value</t>
-  </si>
-  <si>
-    <t>standard deviation</t>
-  </si>
-  <si>
-    <t>z-score of 80 percentile</t>
-  </si>
-  <si>
-    <t>normalized standard deviation</t>
-  </si>
-  <si>
-    <t>https://emp.lbl.gov/utility-scale-solar</t>
-  </si>
-  <si>
-    <t>Berkeley Lab</t>
-  </si>
-  <si>
-    <t>Utility-Scale Solar Empirical Trends in Project Technology, Cost, Performance, and PPA Pricing in the United States</t>
-  </si>
-  <si>
-    <t>solar PV and the availability of data published by NREL, we use data from the Berkeley Lab to</t>
-  </si>
-  <si>
     <t>heavy or residual fuel oil</t>
   </si>
   <si>
@@ -325,16 +241,25 @@
   </si>
   <si>
     <t>Norm St Dev of New Capital Costs (dimensionless)</t>
+  </si>
+  <si>
+    <t>Coal, Natural Gas Nonpeaker, Nuclear, Wind, Solar, Geothermal</t>
+  </si>
+  <si>
+    <t>nuclear, onshore wind, solar thermal, solar PV, and geothermal. We use onshore wind values</t>
+  </si>
+  <si>
+    <t>for solar PV. For the remaining power plant types, we use reported project costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,48 +315,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,14 +329,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -581,335 +460,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -928,7 +478,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -970,116 +520,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="5"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,731 +813,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.265625" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>63</v>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8">
         <v>2857</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8">
         <v>2083</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <f>STDEV(B2:B10)/AVERAGE(B2:B10)</f>
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8">
         <v>2433</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8">
         <v>2499</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="8">
         <v>2250</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8">
         <v>3073</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8">
         <v>2571</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="8">
         <v>2440</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="8">
         <v>2467</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="8">
         <v>5746</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="8">
         <v>4260</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="8">
         <v>3670</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="8">
         <v>2865</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="8">
         <v>3200</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="8">
         <v>3596</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="8">
         <v>3108</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="8">
         <v>4540</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="8">
         <v>4387</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="8">
         <v>1085</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="8">
         <v>1097</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="8">
         <v>1167</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="8">
         <v>1277</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="8">
         <v>1100</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="8">
         <v>1409</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="8">
         <v>1017</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="8">
         <v>2000</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="8">
         <v>2152</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="8">
         <v>2439</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="8">
         <v>1806</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="8">
         <v>1500</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="8">
         <v>2313</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="8">
         <v>2535</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="8">
         <v>2500</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="8">
         <v>3429</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="8">
         <v>2847</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="8">
         <v>3906</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="8">
         <v>3725</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="8">
         <v>3000</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="8">
         <v>3107</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="8">
         <v>3906</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="8">
         <v>3610</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="8">
         <v>3000</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="8">
         <v>3000</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="8">
         <v>4000</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="8">
         <v>3571</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="8">
         <v>7143</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="8">
         <v>5961</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2094,69 +1515,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="11" width="13.73046875" customWidth="1"/>
-    <col min="12" max="12" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="6">
         <v>3683</v>
@@ -2190,7 +1611,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="6">
         <v>3683</v>
@@ -2224,7 +1645,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="6">
         <v>2542</v>
@@ -2258,7 +1679,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="6">
         <v>3045</v>
@@ -2292,7 +1713,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>4104</v>
@@ -2324,7 +1745,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>3060</v>
@@ -2354,7 +1775,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="6">
         <v>3104</v>
@@ -2384,7 +1805,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="6">
         <v>3514</v>
@@ -2414,7 +1835,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6">
@@ -2440,7 +1861,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6">
@@ -2464,7 +1885,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="13"/>
       <c r="C12" s="6">
@@ -2488,7 +1909,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6">
@@ -2512,7 +1933,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="13"/>
       <c r="C14" s="6">
@@ -2534,7 +1955,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6">
@@ -2556,7 +1977,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6">
@@ -2576,7 +1997,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6">
@@ -2596,7 +2017,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6">
@@ -2612,7 +2033,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6">
@@ -2628,7 +2049,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2642,7 +2063,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2656,7 +2077,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2670,7 +2091,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2684,7 +2105,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2698,7 +2119,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2712,9 +2133,9 @@
       <c r="K25" s="13"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="16">
         <f>STDEV(B2:B25)</f>
@@ -2749,7 +2170,7 @@
         <v>1417.6199938522661</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K26" s="16">
         <f t="shared" si="0"/>
@@ -2760,9 +2181,9 @@
         <v>146.68162802478025</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="18">
         <f>B26/AVERAGE(B2:B25)</f>
@@ -2797,7 +2218,7 @@
         <v>0.2969718751850845</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="1"/>
@@ -2814,711 +2235,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="17.1328125" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="61"/>
-      <c r="B4" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="37">
-        <v>3.9144099055272745</v>
-      </c>
-      <c r="C5" s="37">
-        <v>3.6813171540272736</v>
-      </c>
-      <c r="D5" s="37">
-        <v>3.5202712529909097</v>
-      </c>
-      <c r="E5" s="38">
-        <v>4.3085485580636398</v>
-      </c>
-      <c r="F5" s="39">
-        <v>8.1494922782228851</v>
-      </c>
-      <c r="G5" s="40">
-        <v>7.6010876379247039</v>
-      </c>
-      <c r="H5" s="40">
-        <v>7.212985892482914</v>
-      </c>
-      <c r="I5" s="41">
-        <v>9.0859986639628563</v>
-      </c>
-      <c r="J5" s="39">
-        <v>6.5886483019895996</v>
-      </c>
-      <c r="K5" s="40">
-        <v>6.2119558799752195</v>
-      </c>
-      <c r="L5" s="42">
-        <v>5</v>
-      </c>
-      <c r="M5" s="43">
-        <v>74.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="44">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="37">
-        <v>4.8009146962644929</v>
-      </c>
-      <c r="C6" s="37">
-        <v>4.2157678525637996</v>
-      </c>
-      <c r="D6" s="37">
-        <v>3.8722044569166716</v>
-      </c>
-      <c r="E6" s="38">
-        <v>5.3046258843192442</v>
-      </c>
-      <c r="F6" s="45">
-        <v>6.4446953207338407</v>
-      </c>
-      <c r="G6" s="37">
-        <v>6.1902079988480327</v>
-      </c>
-      <c r="H6" s="37">
-        <v>5.5702007242807428</v>
-      </c>
-      <c r="I6" s="46">
-        <v>7.6304423195186777</v>
-      </c>
-      <c r="J6" s="45">
-        <v>5.1026755246398139</v>
-      </c>
-      <c r="K6" s="37">
-        <v>4.7204585279863105</v>
-      </c>
-      <c r="L6" s="47">
-        <v>10</v>
-      </c>
-      <c r="M6" s="48">
-        <v>175.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="49">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="37">
-        <v>4.4752020304832012</v>
-      </c>
-      <c r="C7" s="37">
-        <v>4.4038552413667071</v>
-      </c>
-      <c r="D7" s="37">
-        <v>3.7438521635643833</v>
-      </c>
-      <c r="E7" s="38">
-        <v>5.0040533975665715</v>
-      </c>
-      <c r="F7" s="45">
-        <v>4.4638016198931165</v>
-      </c>
-      <c r="G7" s="37">
-        <v>4.5202660401038166</v>
-      </c>
-      <c r="H7" s="37">
-        <v>4.0082035984125435</v>
-      </c>
-      <c r="I7" s="46">
-        <v>5.0515017818863672</v>
-      </c>
-      <c r="J7" s="45">
-        <v>4.4752020304832012</v>
-      </c>
-      <c r="K7" s="37">
-        <v>4.4587393994753288</v>
-      </c>
-      <c r="L7" s="47">
-        <v>29</v>
-      </c>
-      <c r="M7" s="48">
-        <v>427.78999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="44">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="37">
-        <v>3.6277141990526971</v>
-      </c>
-      <c r="C8" s="37">
-        <v>3.4226441916755546</v>
-      </c>
-      <c r="D8" s="37">
-        <v>3.174585960529765</v>
-      </c>
-      <c r="E8" s="38">
-        <v>4.3981022210288874</v>
-      </c>
-      <c r="F8" s="45">
-        <v>4.1904440994079302</v>
-      </c>
-      <c r="G8" s="37">
-        <v>4.331107758378093</v>
-      </c>
-      <c r="H8" s="37">
-        <v>4.1298554331528754</v>
-      </c>
-      <c r="I8" s="46">
-        <v>4.6547378457950588</v>
-      </c>
-      <c r="J8" s="45">
-        <v>4.138532073030845</v>
-      </c>
-      <c r="K8" s="37">
-        <v>3.7832613087278024</v>
-      </c>
-      <c r="L8" s="47">
-        <v>40</v>
-      </c>
-      <c r="M8" s="48">
-        <v>914.79399999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="44">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="37">
-        <v>3.6688842725659478</v>
-      </c>
-      <c r="C9" s="37">
-        <v>3.7613248559670618</v>
-      </c>
-      <c r="D9" s="37">
-        <v>3.0238722825341564</v>
-      </c>
-      <c r="E9" s="38">
-        <v>4.2973811763266898</v>
-      </c>
-      <c r="F9" s="45">
-        <v>3.8315811855901529</v>
-      </c>
-      <c r="G9" s="37">
-        <v>4.1060696615563126</v>
-      </c>
-      <c r="H9" s="37">
-        <v>3.4008089602146985</v>
-      </c>
-      <c r="I9" s="46">
-        <v>4.372582114760772</v>
-      </c>
-      <c r="J9" s="45">
-        <v>3.6931179502025016</v>
-      </c>
-      <c r="K9" s="37">
-        <v>3.9502559455081609</v>
-      </c>
-      <c r="L9" s="47">
-        <v>38</v>
-      </c>
-      <c r="M9" s="48">
-        <v>1343.7889999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="44">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="37">
-        <v>3.1237826469444467</v>
-      </c>
-      <c r="C10" s="37">
-        <v>3.8124073955915994</v>
-      </c>
-      <c r="D10" s="37">
-        <v>2.6208947050717888</v>
-      </c>
-      <c r="E10" s="38">
-        <v>3.9764273740970499</v>
-      </c>
-      <c r="F10" s="45">
-        <v>3.2275672995917599</v>
-      </c>
-      <c r="G10" s="37">
-        <v>3.7883697335436373</v>
-      </c>
-      <c r="H10" s="37">
-        <v>2.5954323356551661</v>
-      </c>
-      <c r="I10" s="46">
-        <v>4.2319891215668823</v>
-      </c>
-      <c r="J10" s="45">
-        <v>3.1315397408770291</v>
-      </c>
-      <c r="K10" s="37">
-        <v>3.802643754500048</v>
-      </c>
-      <c r="L10" s="47">
-        <v>64</v>
-      </c>
-      <c r="M10" s="48">
-        <v>3166.3595000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="49">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="50">
-        <v>2.5100236390040873</v>
-      </c>
-      <c r="C11" s="51">
-        <v>2.4663045198462825</v>
-      </c>
-      <c r="D11" s="51">
-        <v>2.0306330363960297</v>
-      </c>
-      <c r="E11" s="52">
-        <v>3.2453329520500516</v>
-      </c>
-      <c r="F11" s="53">
-        <v>2.9247457386562412</v>
-      </c>
-      <c r="G11" s="51">
-        <v>3.4135734811605576</v>
-      </c>
-      <c r="H11" s="51">
-        <v>2.3256329345889539</v>
-      </c>
-      <c r="I11" s="54">
-        <v>3.5695144784205359</v>
-      </c>
-      <c r="J11" s="53">
-        <v>2.8108156655637568</v>
-      </c>
-      <c r="K11" s="51">
-        <v>3.1305859557674611</v>
-      </c>
-      <c r="L11" s="55">
-        <v>87</v>
-      </c>
-      <c r="M11" s="56">
-        <v>2869.6819999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="49">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="50">
-        <v>2.2668519416619106</v>
-      </c>
-      <c r="C12" s="51">
-        <v>2.8625569908696802</v>
-      </c>
-      <c r="D12" s="51">
-        <v>1.8995699551441392</v>
-      </c>
-      <c r="E12" s="52">
-        <v>3.2440423131531717</v>
-      </c>
-      <c r="F12" s="53">
-        <v>2.3375069464261395</v>
-      </c>
-      <c r="G12" s="51">
-        <v>2.3038721769513564</v>
-      </c>
-      <c r="H12" s="51">
-        <v>2.0370092356573561</v>
-      </c>
-      <c r="I12" s="54">
-        <v>2.870500861635672</v>
-      </c>
-      <c r="J12" s="53">
-        <v>2.3336239668093404</v>
-      </c>
-      <c r="K12" s="51">
-        <v>2.4161466714039159</v>
-      </c>
-      <c r="L12" s="55">
-        <v>157</v>
-      </c>
-      <c r="M12" s="56">
-        <v>7468.993999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="49">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="50">
-        <v>2.0491852214151827</v>
-      </c>
-      <c r="C13" s="51">
-        <v>2.0043665964367037</v>
-      </c>
-      <c r="D13" s="51">
-        <v>1.8866850471052807</v>
-      </c>
-      <c r="E13" s="52">
-        <v>2.1449119700000003</v>
-      </c>
-      <c r="F13" s="53">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="G13" s="51">
-        <v>2.0600541349245414</v>
-      </c>
-      <c r="H13" s="51">
-        <v>1.6098484848484849</v>
-      </c>
-      <c r="I13" s="54">
-        <v>2.2362264705566055</v>
-      </c>
-      <c r="J13" s="53">
-        <v>1.9952219873604227</v>
-      </c>
-      <c r="K13" s="51">
-        <v>2.0422558783676759</v>
-      </c>
-      <c r="L13" s="55">
-        <v>76</v>
-      </c>
-      <c r="M13" s="56">
-        <v>2303.190000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="57">
-        <f>C13</f>
-        <v>2.0043665964367037</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="58">
-        <f>E13</f>
-        <v>2.1449119700000003</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19">
-        <f>(D18-D17)/D20</f>
-        <v>0.16731592090868649</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22">
-        <f>D19/D17</f>
-        <v>8.3475708089595577E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A14:M14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF215381"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="32.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="26">
         <f>STDEV(CRS!B2:B10)/AVERAGE(CRS!B2:B10)</f>
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="26">
         <f>STDEV(CRS!B20:B26)/AVERAGE(CRS!B20:B26)</f>
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="26">
         <f>STDEV(CRS!B11:B19)/AVERAGE(CRS!B11:B19)</f>
         <v>0.22951832790705273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="26">
         <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A4))</f>
         <v>0.6323412969779878</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="26">
         <f>STDEV(CRS!B27:B33)/AVERAGE(CRS!B27:B33)</f>
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="26">
-        <f>PV!D22</f>
-        <v>8.3475708089595577E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <f>B6</f>
+        <v>0.17425352832467156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="26">
         <f>STDEV(CRS!B38:B46)/AVERAGE(CRS!B38:B46)</f>
         <v>0.11955441996991129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="26">
         <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A8))</f>
         <v>0.2969718751850845</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="26">
         <f>B5</f>
         <v>0.6323412969779878</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="26">
         <f>B3</f>
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="26">
         <f>INDEX('E3 Data'!$B$27:$L$27,1,ROW(A10))</f>
         <v>0.37017095779576853</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="28">
         <f>B2</f>
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="28">
         <f>B6</f>
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B15" s="28">
         <f>B11</f>
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B16" s="28">
         <f>B11</f>
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B17" s="28">
         <f>B9</f>
